--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam17-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam17-Itga5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.150543</v>
+        <v>18.86074233333333</v>
       </c>
       <c r="H2">
-        <v>36.451629</v>
+        <v>56.582227</v>
       </c>
       <c r="I2">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792444</v>
       </c>
       <c r="J2">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792442</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N2">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q2">
-        <v>296.885618378515</v>
+        <v>762.6516504517894</v>
       </c>
       <c r="R2">
-        <v>2671.970565406635</v>
+        <v>6863.864854066104</v>
       </c>
       <c r="S2">
-        <v>0.00644568721942717</v>
+        <v>0.01423603998653626</v>
       </c>
       <c r="T2">
-        <v>0.006445687219427171</v>
+        <v>0.01423603998653626</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.150543</v>
+        <v>18.86074233333333</v>
       </c>
       <c r="H3">
-        <v>36.451629</v>
+        <v>56.582227</v>
       </c>
       <c r="I3">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792444</v>
       </c>
       <c r="J3">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792442</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q3">
-        <v>1050.26361360956</v>
+        <v>1630.277050035169</v>
       </c>
       <c r="R3">
-        <v>9452.372522486043</v>
+        <v>14672.49345031652</v>
       </c>
       <c r="S3">
-        <v>0.02280228590474036</v>
+        <v>0.03043157286774949</v>
       </c>
       <c r="T3">
-        <v>0.02280228590474036</v>
+        <v>0.03043157286774948</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.150543</v>
+        <v>18.86074233333333</v>
       </c>
       <c r="H4">
-        <v>36.451629</v>
+        <v>56.582227</v>
       </c>
       <c r="I4">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792444</v>
       </c>
       <c r="J4">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792442</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N4">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q4">
-        <v>410.718818861482</v>
+        <v>1049.23726670774</v>
       </c>
       <c r="R4">
-        <v>3696.469369753338</v>
+        <v>9443.13540036966</v>
       </c>
       <c r="S4">
-        <v>0.008917121199648053</v>
+        <v>0.0195855915021843</v>
       </c>
       <c r="T4">
-        <v>0.008917121199648053</v>
+        <v>0.01958559150218429</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.150543</v>
+        <v>18.86074233333333</v>
       </c>
       <c r="H5">
-        <v>36.451629</v>
+        <v>56.582227</v>
       </c>
       <c r="I5">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792444</v>
       </c>
       <c r="J5">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792442</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N5">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q5">
-        <v>109.175002261066</v>
+        <v>152.1642694867071</v>
       </c>
       <c r="R5">
-        <v>982.5750203495941</v>
+        <v>1369.478425380364</v>
       </c>
       <c r="S5">
-        <v>0.002370299782786688</v>
+        <v>0.00284037492563163</v>
       </c>
       <c r="T5">
-        <v>0.002370299782786688</v>
+        <v>0.002840374925631631</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.150543</v>
+        <v>18.86074233333333</v>
       </c>
       <c r="H6">
-        <v>36.451629</v>
+        <v>56.582227</v>
       </c>
       <c r="I6">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792444</v>
       </c>
       <c r="J6">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792442</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N6">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q6">
-        <v>308.248607733246</v>
+        <v>577.3240159065109</v>
       </c>
       <c r="R6">
-        <v>2774.237469599214</v>
+        <v>5195.916143158599</v>
       </c>
       <c r="S6">
-        <v>0.006692389217517548</v>
+        <v>0.01077662097861327</v>
       </c>
       <c r="T6">
-        <v>0.006692389217517548</v>
+        <v>0.01077662097861326</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.150543</v>
+        <v>18.86074233333333</v>
       </c>
       <c r="H7">
-        <v>36.451629</v>
+        <v>56.582227</v>
       </c>
       <c r="I7">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792444</v>
       </c>
       <c r="J7">
-        <v>0.05382648024663175</v>
+        <v>0.09160577546792442</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N7">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q7">
-        <v>303.933180379556</v>
+        <v>735.8408034530785</v>
       </c>
       <c r="R7">
-        <v>2735.398623416004</v>
+        <v>6622.567231077707</v>
       </c>
       <c r="S7">
-        <v>0.006598696922511926</v>
+        <v>0.01373557520720949</v>
       </c>
       <c r="T7">
-        <v>0.006598696922511927</v>
+        <v>0.01373557520720948</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>22.297341</v>
       </c>
       <c r="H8">
-        <v>66.89202299999999</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I8">
-        <v>0.09877644027011075</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="J8">
-        <v>0.09877644027011073</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N8">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q8">
-        <v>544.8118549913049</v>
+        <v>901.6137124296832</v>
       </c>
       <c r="R8">
-        <v>4903.306694921744</v>
+        <v>8114.523411867149</v>
       </c>
       <c r="S8">
-        <v>0.01182841671445543</v>
+        <v>0.01682997585457892</v>
       </c>
       <c r="T8">
-        <v>0.01182841671445543</v>
+        <v>0.01682997585457891</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>22.297341</v>
       </c>
       <c r="H9">
-        <v>66.89202299999999</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I9">
-        <v>0.09877644027011075</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="J9">
-        <v>0.09877644027011073</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q9">
-        <v>1927.32834512372</v>
+        <v>1927.328345123721</v>
       </c>
       <c r="R9">
         <v>17345.95510611348</v>
       </c>
       <c r="S9">
-        <v>0.04184424880414721</v>
+        <v>0.03597648201785474</v>
       </c>
       <c r="T9">
-        <v>0.04184424880414721</v>
+        <v>0.03597648201785474</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>22.297341</v>
       </c>
       <c r="H10">
-        <v>66.89202299999999</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I10">
-        <v>0.09877644027011075</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="J10">
-        <v>0.09877644027011073</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N10">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q10">
-        <v>753.706032666334</v>
+        <v>1240.417832565538</v>
       </c>
       <c r="R10">
-        <v>6783.354293997006</v>
+        <v>11163.76049308984</v>
       </c>
       <c r="S10">
-        <v>0.01636372071000298</v>
+        <v>0.02315426427511799</v>
       </c>
       <c r="T10">
-        <v>0.01636372071000298</v>
+        <v>0.02315426427511799</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>22.297341</v>
       </c>
       <c r="H11">
-        <v>66.89202299999999</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I11">
-        <v>0.09877644027011075</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="J11">
-        <v>0.09877644027011073</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N11">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q11">
-        <v>200.345964298942</v>
+        <v>179.889982313404</v>
       </c>
       <c r="R11">
-        <v>1803.113678690478</v>
+        <v>1619.009840820636</v>
       </c>
       <c r="S11">
-        <v>0.00434971363247064</v>
+        <v>0.003357917051479334</v>
       </c>
       <c r="T11">
-        <v>0.00434971363247064</v>
+        <v>0.003357917051479334</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>22.297341</v>
       </c>
       <c r="H12">
-        <v>66.89202299999999</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I12">
-        <v>0.09877644027011075</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="J12">
-        <v>0.09877644027011073</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N12">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q12">
-        <v>565.663964104602</v>
+        <v>682.5176985428782</v>
       </c>
       <c r="R12">
-        <v>5090.975676941417</v>
+        <v>6142.659286885903</v>
       </c>
       <c r="S12">
-        <v>0.0122811371053715</v>
+        <v>0.01274021926290885</v>
       </c>
       <c r="T12">
-        <v>0.0122811371053715</v>
+        <v>0.01274021926290885</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>22.297341</v>
       </c>
       <c r="H13">
-        <v>66.89202299999999</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I13">
-        <v>0.09877644027011075</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="J13">
-        <v>0.09877644027011073</v>
+        <v>0.1082971803059861</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N13">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q13">
-        <v>557.744766150572</v>
+        <v>869.917685440727</v>
       </c>
       <c r="R13">
-        <v>5019.702895355148</v>
+        <v>7829.259168966543</v>
       </c>
       <c r="S13">
-        <v>0.01210920330366297</v>
+        <v>0.01623832184404631</v>
       </c>
       <c r="T13">
-        <v>0.01210920330366297</v>
+        <v>0.01623832184404631</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.98715833333333</v>
+        <v>51.42144766666667</v>
       </c>
       <c r="H14">
-        <v>164.961475</v>
+        <v>154.264343</v>
       </c>
       <c r="I14">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757498</v>
       </c>
       <c r="J14">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757497</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N14">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q14">
-        <v>1343.552835841902</v>
+        <v>2079.274041207515</v>
       </c>
       <c r="R14">
-        <v>12091.97552257712</v>
+        <v>18713.46637086763</v>
       </c>
       <c r="S14">
-        <v>0.02916989172432745</v>
+        <v>0.03881277694221446</v>
       </c>
       <c r="T14">
-        <v>0.02916989172432746</v>
+        <v>0.03881277694221445</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.98715833333333</v>
+        <v>51.42144766666667</v>
       </c>
       <c r="H15">
-        <v>164.961475</v>
+        <v>154.264343</v>
       </c>
       <c r="I15">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757498</v>
       </c>
       <c r="J15">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757497</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q15">
-        <v>4752.957263991222</v>
+        <v>4444.745839212965</v>
       </c>
       <c r="R15">
-        <v>42776.615375921</v>
+        <v>40002.71255291668</v>
       </c>
       <c r="S15">
-        <v>0.1031915121329057</v>
+        <v>0.08296786542000195</v>
       </c>
       <c r="T15">
-        <v>0.1031915121329057</v>
+        <v>0.08296786542000192</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.98715833333333</v>
+        <v>51.42144766666667</v>
       </c>
       <c r="H16">
-        <v>164.961475</v>
+        <v>154.264343</v>
       </c>
       <c r="I16">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757498</v>
       </c>
       <c r="J16">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757497</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N16">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q16">
-        <v>1858.703822801661</v>
+        <v>2860.613768344347</v>
       </c>
       <c r="R16">
-        <v>16728.33440521495</v>
+        <v>25745.52391509912</v>
       </c>
       <c r="S16">
-        <v>0.04035434097740082</v>
+        <v>0.05339765798456189</v>
       </c>
       <c r="T16">
-        <v>0.04035434097740082</v>
+        <v>0.05339765798456188</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>54.98715833333333</v>
+        <v>51.42144766666667</v>
       </c>
       <c r="H17">
-        <v>164.961475</v>
+        <v>154.264343</v>
       </c>
       <c r="I17">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757498</v>
       </c>
       <c r="J17">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757497</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N17">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q17">
-        <v>494.0703584499277</v>
+        <v>414.8567899323195</v>
       </c>
       <c r="R17">
-        <v>4446.633226049349</v>
+        <v>3733.711109390877</v>
       </c>
       <c r="S17">
-        <v>0.01072676747479987</v>
+        <v>0.007743925875809684</v>
       </c>
       <c r="T17">
-        <v>0.01072676747479987</v>
+        <v>0.007743925875809684</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>54.98715833333333</v>
+        <v>51.42144766666667</v>
       </c>
       <c r="H18">
-        <v>164.961475</v>
+        <v>154.264343</v>
       </c>
       <c r="I18">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757498</v>
       </c>
       <c r="J18">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757497</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N18">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q18">
-        <v>1394.97592819165</v>
+        <v>1574.001497182843</v>
       </c>
       <c r="R18">
-        <v>12554.78335372485</v>
+        <v>14166.01347464558</v>
       </c>
       <c r="S18">
-        <v>0.03028633909874893</v>
+        <v>0.02938110504250376</v>
       </c>
       <c r="T18">
-        <v>0.03028633909874893</v>
+        <v>0.02938110504250376</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>54.98715833333333</v>
+        <v>51.42144766666667</v>
       </c>
       <c r="H19">
-        <v>164.961475</v>
+        <v>154.264343</v>
       </c>
       <c r="I19">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757498</v>
       </c>
       <c r="J19">
-        <v>0.2435911869821438</v>
+        <v>0.2497516537757497</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N19">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q19">
-        <v>1375.446505747455</v>
+        <v>2006.177630606184</v>
       </c>
       <c r="R19">
-        <v>12379.0185517271</v>
+        <v>18055.59867545566</v>
       </c>
       <c r="S19">
-        <v>0.02986233557396099</v>
+        <v>0.03744832251065799</v>
       </c>
       <c r="T19">
-        <v>0.02986233557396099</v>
+        <v>0.03744832251065798</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.19562</v>
+        <v>8.579047666666666</v>
       </c>
       <c r="H20">
-        <v>30.58686</v>
+        <v>25.737143</v>
       </c>
       <c r="I20">
-        <v>0.045166239774812</v>
+        <v>0.04166804786322502</v>
       </c>
       <c r="J20">
-        <v>0.04516623977481201</v>
+        <v>0.04166804786322501</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N20">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q20">
-        <v>249.1191503501</v>
+        <v>346.9017680563142</v>
       </c>
       <c r="R20">
-        <v>2242.0723531509</v>
+        <v>3122.115912506827</v>
       </c>
       <c r="S20">
-        <v>0.005408628859478629</v>
+        <v>0.006475443196804567</v>
       </c>
       <c r="T20">
-        <v>0.00540862885947863</v>
+        <v>0.006475443196804566</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.19562</v>
+        <v>8.579047666666666</v>
       </c>
       <c r="H21">
-        <v>30.58686</v>
+        <v>25.737143</v>
       </c>
       <c r="I21">
-        <v>0.045166239774812</v>
+        <v>0.04166804786322502</v>
       </c>
       <c r="J21">
-        <v>0.04516623977481201</v>
+        <v>0.04166804786322501</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q21">
-        <v>881.2847873704001</v>
+        <v>741.5521762049644</v>
       </c>
       <c r="R21">
-        <v>7931.563086333601</v>
+        <v>6673.969585844679</v>
       </c>
       <c r="S21">
-        <v>0.01913358458268811</v>
+        <v>0.01384218656879993</v>
       </c>
       <c r="T21">
-        <v>0.01913358458268811</v>
+        <v>0.01384218656879992</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.19562</v>
+        <v>8.579047666666666</v>
       </c>
       <c r="H22">
-        <v>30.58686</v>
+        <v>25.737143</v>
       </c>
       <c r="I22">
-        <v>0.045166239774812</v>
+        <v>0.04166804786322502</v>
       </c>
       <c r="J22">
-        <v>0.04516623977481201</v>
+        <v>0.04166804786322501</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N22">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q22">
-        <v>344.63751981788</v>
+        <v>477.2588674211469</v>
       </c>
       <c r="R22">
-        <v>3101.73767836092</v>
+        <v>4295.329806790322</v>
       </c>
       <c r="S22">
-        <v>0.007482429323986234</v>
+        <v>0.008908754496907695</v>
       </c>
       <c r="T22">
-        <v>0.007482429323986237</v>
+        <v>0.008908754496907692</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.19562</v>
+        <v>8.579047666666666</v>
       </c>
       <c r="H23">
-        <v>30.58686</v>
+        <v>25.737143</v>
       </c>
       <c r="I23">
-        <v>0.045166239774812</v>
+        <v>0.04166804786322502</v>
       </c>
       <c r="J23">
-        <v>0.04516623977481201</v>
+        <v>0.04166804786322501</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N23">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q23">
-        <v>91.60963724443999</v>
+        <v>69.21384630671956</v>
       </c>
       <c r="R23">
-        <v>824.4867351999601</v>
+        <v>622.9246167604759</v>
       </c>
       <c r="S23">
-        <v>0.001988937932352127</v>
+        <v>0.001291980530115855</v>
       </c>
       <c r="T23">
-        <v>0.001988937932352127</v>
+        <v>0.001291980530115855</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.19562</v>
+        <v>8.579047666666666</v>
       </c>
       <c r="H24">
-        <v>30.58686</v>
+        <v>25.737143</v>
       </c>
       <c r="I24">
-        <v>0.045166239774812</v>
+        <v>0.04166804786322502</v>
       </c>
       <c r="J24">
-        <v>0.04516623977481201</v>
+        <v>0.04166804786322501</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N24">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q24">
-        <v>258.65392764564</v>
+        <v>262.6031448836424</v>
       </c>
       <c r="R24">
-        <v>2327.88534881076</v>
+        <v>2363.428303952782</v>
       </c>
       <c r="S24">
-        <v>0.005615638523636866</v>
+        <v>0.004901882620904433</v>
       </c>
       <c r="T24">
-        <v>0.005615638523636867</v>
+        <v>0.004901882620904431</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.19562</v>
+        <v>8.579047666666666</v>
       </c>
       <c r="H25">
-        <v>30.58686</v>
+        <v>25.737143</v>
       </c>
       <c r="I25">
-        <v>0.045166239774812</v>
+        <v>0.04166804786322502</v>
       </c>
       <c r="J25">
-        <v>0.04516623977481201</v>
+        <v>0.04166804786322501</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N25">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q25">
-        <v>255.03281726104</v>
+        <v>334.7065145333847</v>
       </c>
       <c r="R25">
-        <v>2295.29535534936</v>
+        <v>3012.358630800462</v>
       </c>
       <c r="S25">
-        <v>0.005537020552670037</v>
+        <v>0.006247800449692536</v>
       </c>
       <c r="T25">
-        <v>0.005537020552670038</v>
+        <v>0.006247800449692534</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>59.79288466666666</v>
+        <v>63.138209</v>
       </c>
       <c r="H26">
-        <v>179.378654</v>
+        <v>189.414627</v>
       </c>
       <c r="I26">
-        <v>0.2648803864485285</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="J26">
-        <v>0.2648803864485286</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N26">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q26">
-        <v>1460.975656717445</v>
+        <v>2553.052178403301</v>
       </c>
       <c r="R26">
-        <v>13148.78091045701</v>
+        <v>22977.4696056297</v>
       </c>
       <c r="S26">
-        <v>0.03171925999592085</v>
+        <v>0.04765655837489129</v>
       </c>
       <c r="T26">
-        <v>0.03171925999592085</v>
+        <v>0.04765655837489129</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>59.79288466666666</v>
+        <v>63.138209</v>
       </c>
       <c r="H27">
-        <v>179.378654</v>
+        <v>189.414627</v>
       </c>
       <c r="I27">
-        <v>0.2648803864485285</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="J27">
-        <v>0.2648803864485286</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>259.31276</v>
       </c>
       <c r="O27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q27">
-        <v>5168.352650425004</v>
+        <v>5457.514412415613</v>
       </c>
       <c r="R27">
-        <v>46515.17385382504</v>
+        <v>49117.62971174053</v>
       </c>
       <c r="S27">
-        <v>0.1122101663471747</v>
+        <v>0.101872713913648</v>
       </c>
       <c r="T27">
-        <v>0.1122101663471747</v>
+        <v>0.101872713913648</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>59.79288466666666</v>
+        <v>63.138209</v>
       </c>
       <c r="H28">
-        <v>179.378654</v>
+        <v>189.414627</v>
       </c>
       <c r="I28">
-        <v>0.2648803864485285</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="J28">
-        <v>0.2648803864485286</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N28">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q28">
-        <v>2021.149422426154</v>
+        <v>3512.426004511029</v>
       </c>
       <c r="R28">
-        <v>18190.34480183538</v>
+        <v>31611.83404059926</v>
       </c>
       <c r="S28">
-        <v>0.04388119933810729</v>
+        <v>0.06556471361511818</v>
       </c>
       <c r="T28">
-        <v>0.04388119933810731</v>
+        <v>0.06556471361511818</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>59.79288466666666</v>
+        <v>63.138209</v>
       </c>
       <c r="H29">
-        <v>179.378654</v>
+        <v>189.414627</v>
       </c>
       <c r="I29">
-        <v>0.2648803864485285</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="J29">
-        <v>0.2648803864485286</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N29">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q29">
-        <v>537.2507482734715</v>
+        <v>509.3850114374627</v>
       </c>
       <c r="R29">
-        <v>4835.256734461243</v>
+        <v>4584.465102937164</v>
       </c>
       <c r="S29">
-        <v>0.01166425743586846</v>
+        <v>0.009508437288597141</v>
       </c>
       <c r="T29">
-        <v>0.01166425743586846</v>
+        <v>0.009508437288597144</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>59.79288466666666</v>
+        <v>63.138209</v>
       </c>
       <c r="H30">
-        <v>179.378654</v>
+        <v>189.414627</v>
       </c>
       <c r="I30">
-        <v>0.2648803864485285</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="J30">
-        <v>0.2648803864485286</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N30">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q30">
-        <v>1516.892985840596</v>
+        <v>1932.649507257355</v>
       </c>
       <c r="R30">
-        <v>13652.03687256536</v>
+        <v>17393.8455653162</v>
       </c>
       <c r="S30">
-        <v>0.03293328179880275</v>
+        <v>0.0360758095114285</v>
       </c>
       <c r="T30">
-        <v>0.03293328179880276</v>
+        <v>0.0360758095114285</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>59.79288466666666</v>
+        <v>63.138209</v>
       </c>
       <c r="H31">
-        <v>179.378654</v>
+        <v>189.414627</v>
       </c>
       <c r="I31">
-        <v>0.2648803864485285</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="J31">
-        <v>0.2648803864485286</v>
+        <v>0.3066594355026474</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N31">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q31">
-        <v>1495.656745612767</v>
+        <v>2463.300204098456</v>
       </c>
       <c r="R31">
-        <v>13460.9107105149</v>
+        <v>22169.70183688611</v>
       </c>
       <c r="S31">
-        <v>0.03247222153265445</v>
+        <v>0.04598120279896428</v>
       </c>
       <c r="T31">
-        <v>0.03247222153265446</v>
+        <v>0.04598120279896428</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>66.31187066666666</v>
+        <v>41.59353133333333</v>
       </c>
       <c r="H32">
-        <v>198.935612</v>
+        <v>124.780594</v>
       </c>
       <c r="I32">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="J32">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N32">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O32">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P32">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q32">
-        <v>1620.260158637309</v>
+        <v>1681.873107582963</v>
       </c>
       <c r="R32">
-        <v>14582.34142773578</v>
+        <v>15136.85796824667</v>
       </c>
       <c r="S32">
-        <v>0.03517748772646957</v>
+        <v>0.03139469087577175</v>
       </c>
       <c r="T32">
-        <v>0.03517748772646958</v>
+        <v>0.03139469087577175</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>66.31187066666666</v>
+        <v>41.59353133333333</v>
       </c>
       <c r="H33">
-        <v>198.935612</v>
+        <v>124.780594</v>
       </c>
       <c r="I33">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="J33">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>259.31276</v>
       </c>
       <c r="O33">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P33">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q33">
-        <v>5731.838067778792</v>
+        <v>3595.244469397716</v>
       </c>
       <c r="R33">
-        <v>51586.54261000912</v>
+        <v>32357.20022457944</v>
       </c>
       <c r="S33">
-        <v>0.1244440049979247</v>
+        <v>0.06711064481064105</v>
       </c>
       <c r="T33">
-        <v>0.1244440049979247</v>
+        <v>0.06711064481064105</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>66.31187066666666</v>
+        <v>41.59353133333333</v>
       </c>
       <c r="H34">
-        <v>198.935612</v>
+        <v>124.780594</v>
       </c>
       <c r="I34">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="J34">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N34">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O34">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P34">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q34">
-        <v>2241.507494497051</v>
+        <v>2313.879398679875</v>
       </c>
       <c r="R34">
-        <v>20173.56745047346</v>
+        <v>20824.91458811887</v>
       </c>
       <c r="S34">
-        <v>0.04866539608230292</v>
+        <v>0.04319203875598443</v>
       </c>
       <c r="T34">
-        <v>0.04866539608230293</v>
+        <v>0.04319203875598442</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>66.31187066666666</v>
+        <v>41.59353133333333</v>
       </c>
       <c r="H35">
-        <v>198.935612</v>
+        <v>124.780594</v>
       </c>
       <c r="I35">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="J35">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N35">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O35">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P35">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q35">
-        <v>595.8251108587368</v>
+        <v>335.5673493043565</v>
       </c>
       <c r="R35">
-        <v>5362.425997728632</v>
+        <v>3020.106143739208</v>
       </c>
       <c r="S35">
-        <v>0.01293596612409659</v>
+        <v>0.006263869225278472</v>
       </c>
       <c r="T35">
-        <v>0.01293596612409659</v>
+        <v>0.006263869225278473</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>66.31187066666666</v>
+        <v>41.59353133333333</v>
       </c>
       <c r="H36">
-        <v>198.935612</v>
+        <v>124.780594</v>
       </c>
       <c r="I36">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="J36">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N36">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O36">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P36">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q36">
-        <v>1682.273936990888</v>
+        <v>1273.17070138084</v>
       </c>
       <c r="R36">
-        <v>15140.46543291799</v>
+        <v>11458.53631242756</v>
       </c>
       <c r="S36">
-        <v>0.03652386961167235</v>
+        <v>0.0237656458276947</v>
       </c>
       <c r="T36">
-        <v>0.03652386961167235</v>
+        <v>0.0237656458276947</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>66.31187066666666</v>
+        <v>41.59353133333333</v>
       </c>
       <c r="H37">
-        <v>198.935612</v>
+        <v>124.780594</v>
       </c>
       <c r="I37">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="J37">
-        <v>0.2937592662777732</v>
+        <v>0.2020179070844673</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N37">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O37">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P37">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q37">
-        <v>1658.722391965346</v>
+        <v>1622.747237296128</v>
       </c>
       <c r="R37">
-        <v>14928.50152768811</v>
+        <v>14604.72513566515</v>
       </c>
       <c r="S37">
-        <v>0.03601254173530699</v>
+        <v>0.03029101758909689</v>
       </c>
       <c r="T37">
-        <v>0.036012541735307</v>
+        <v>0.03029101758909688</v>
       </c>
     </row>
   </sheetData>
